--- a/demo/TestResults.xlsx
+++ b/demo/TestResults.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathl\Dropbox\Projects\MoneyPotInstancingDemo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kathl\Dropbox\Projects\MoneyPotInstancingDemo\demo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EB60AA-CF86-4094-BC1D-E512BBEA94E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A0CB1E-3397-4CBE-ACDD-AA6E8F10DC62}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{486CE3B0-1FA3-4DF8-9513-119900E6D5D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{486CE3B0-1FA3-4DF8-9513-119900E6D5D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Singleton" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>Number of Clients</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t>$ Instance Money Pot Taken (Average)</t>
+  </si>
+  <si>
+    <t>$ Static Money Pot Inequality Ratios</t>
+  </si>
+  <si>
+    <t>Ratio</t>
   </si>
 </sst>
 </file>
@@ -135,7 +141,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -304,12 +310,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +380,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,16 +395,28 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="6" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="2" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -871,7 +934,692 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Inequality Ratios</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>10 sec test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Singleton!$L$4:$P$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Singleton!$L$6:$P$6</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1739130434782608</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-39D0-48E3-A45A-1BB13E2CFF7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>120 sec test</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="17"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Singleton!$L$8:$P$8</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00_);\(#,##0.00\)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4750000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.379032258064516</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.5038167938931295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-39D0-48E3-A45A-1BB13E2CFF7E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="415559464"/>
+        <c:axId val="415558808"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="415559464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Clients Competiting on Thread Lock</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="415558808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="415558808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Inequality Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0.00_);\(#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="415559464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1399,6 +2147,574 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="228">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="17"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1432,6 +2748,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>79375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>384175</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{510A7518-4B36-4F51-ABB3-EFD4BBEC834D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1737,40 +3089,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6D021D-9E97-4A1B-B671-23AB4254A121}">
-  <dimension ref="D1:I13"/>
+  <dimension ref="D1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="4" max="4" width="15.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="9" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="4:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="D2" s="9" t="s">
+    <row r="1" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="4:16" ht="26" x14ac:dyDescent="0.6">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+      <c r="K2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="13"/>
     </row>
-    <row r="3" spans="4:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="4:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="K3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="O3" s="9"/>
+      <c r="P3" s="10"/>
     </row>
-    <row r="4" spans="4:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="4:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="15"/>
       <c r="E4" s="7">
         <v>1</v>
@@ -1787,8 +3161,24 @@
       <c r="I4" s="8">
         <v>10</v>
       </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3</v>
+      </c>
+      <c r="O4" s="7">
+        <v>5</v>
+      </c>
+      <c r="P4" s="8">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="4:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="5" spans="4:16" ht="21" x14ac:dyDescent="0.5">
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1807,8 +3197,26 @@
       <c r="I5" s="3">
         <v>23</v>
       </c>
+      <c r="K5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>50</v>
+      </c>
+      <c r="M5" s="2">
+        <v>50</v>
+      </c>
+      <c r="N5" s="2">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2">
+        <v>30</v>
+      </c>
+      <c r="P5" s="3">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="4:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="4:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1827,31 +3235,98 @@
       <c r="I6" s="6">
         <v>131</v>
       </c>
+      <c r="K6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="17">
+        <f>$L$5/L5</f>
+        <v>1</v>
+      </c>
+      <c r="M6" s="17">
+        <f t="shared" ref="M6:P6" si="0">$L$5/M5</f>
+        <v>1</v>
+      </c>
+      <c r="N6" s="17">
+        <f t="shared" si="0"/>
+        <v>1.25</v>
+      </c>
+      <c r="O6" s="17">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P6" s="18">
+        <f t="shared" si="0"/>
+        <v>2.1739130434782608</v>
+      </c>
     </row>
-    <row r="8" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="4:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="D9" s="9" t="s">
+    <row r="7" spans="4:16" ht="21" x14ac:dyDescent="0.5">
+      <c r="K7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>590</v>
+      </c>
+      <c r="M7" s="2">
+        <v>590</v>
+      </c>
+      <c r="N7" s="2">
+        <v>400</v>
+      </c>
+      <c r="O7" s="2">
+        <v>248</v>
+      </c>
+      <c r="P7" s="3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="4:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="K8" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="20">
+        <f>$L$7/L7</f>
+        <v>1</v>
+      </c>
+      <c r="M8" s="20">
+        <f t="shared" ref="M8:P8" si="1">$L$7/M7</f>
+        <v>1</v>
+      </c>
+      <c r="N8" s="20">
+        <f t="shared" si="1"/>
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" si="1"/>
+        <v>2.379032258064516</v>
+      </c>
+      <c r="P8" s="21">
+        <f t="shared" si="1"/>
+        <v>4.5038167938931295</v>
+      </c>
+    </row>
+    <row r="9" spans="4:16" ht="26" x14ac:dyDescent="0.6">
+      <c r="D9" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
     </row>
-    <row r="10" spans="4:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="4:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="4:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="4:16" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" s="15"/>
       <c r="E11" s="7">
         <v>1</v>
@@ -1869,7 +3344,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="4:9" ht="21" x14ac:dyDescent="0.5">
+    <row r="12" spans="4:16" ht="21" x14ac:dyDescent="0.5">
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1889,7 +3364,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="13" spans="4:9" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="4:16" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" s="4" t="s">
         <v>3</v>
       </c>
@@ -1910,7 +3385,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
+    <mergeCell ref="K2:P2"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:P3"/>
     <mergeCell ref="E3:I3"/>
     <mergeCell ref="D2:I2"/>
     <mergeCell ref="D3:D4"/>
@@ -1939,26 +3417,26 @@
   <sheetData>
     <row r="1" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="4:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="11"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
     </row>
     <row r="3" spans="4:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="4:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D4" s="15"/>
@@ -2000,26 +3478,26 @@
     </row>
     <row r="7" spans="4:9" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="8" spans="4:9" ht="26" x14ac:dyDescent="0.6">
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
     </row>
     <row r="9" spans="4:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="13"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="10"/>
     </row>
     <row r="10" spans="4:9" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" s="15"/>
@@ -2076,8 +3554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{897EB8C0-244E-4BE6-B874-3E2F657AC06C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
